--- a/Bilingual file/Content Specification.xlsx
+++ b/Bilingual file/Content Specification.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13020" tabRatio="927" firstSheet="1" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13020" tabRatio="927" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Accept Notifications" sheetId="4" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <sheet name="Information Menu" sheetId="10" r:id="rId9"/>
     <sheet name="FAQ" sheetId="15" r:id="rId10"/>
     <sheet name="Contact Us Menu" sheetId="9" r:id="rId11"/>
-    <sheet name="Your Results (Dashboard)" sheetId="8" r:id="rId12"/>
+    <sheet name="Results (Dashboard)" sheetId="8" r:id="rId12"/>
     <sheet name="Other Notifications" sheetId="11" r:id="rId13"/>
     <sheet name="Various" sheetId="14" r:id="rId14"/>
   </sheets>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="97">
   <si>
     <t xml:space="preserve">Secure your account </t>
   </si>
@@ -87,31 +87,10 @@
     <t>Créer</t>
   </si>
   <si>
-    <t xml:space="preserve">START YOUR SURVEY </t>
-  </si>
-  <si>
-    <t>COMMENCER L’ENQUÊTE</t>
-  </si>
-  <si>
     <t>Information</t>
   </si>
   <si>
-    <t xml:space="preserve">Contact Us  </t>
-  </si>
-  <si>
     <t>Contactez-nous</t>
-  </si>
-  <si>
-    <t>Vos résultats</t>
-  </si>
-  <si>
-    <t xml:space="preserve">How are you feeling right now? Track your mood in the app. </t>
-  </si>
-  <si>
-    <t>Comment vous sentez-vous en ce moment? Faites le suivi de votre humeur dans l’application.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">We haven’t heard from you in a while. Sign in for a Well-Being Check! </t>
   </si>
   <si>
     <t>Nous n’avons pas eu de vos nouvelles depuis un certain temps. Connectez-vous pour obtenir un Bilan bien-être!</t>
@@ -177,11 +156,302 @@
 K1A 0T6</t>
   </si>
   <si>
-    <t>Pourquoi nous menons cette étude 
+    <r>
+      <t>Information</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Wake</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">-up time </t>
+    </r>
+  </si>
+  <si>
+    <t>Heure du lever</t>
+  </si>
+  <si>
+    <r>
+      <t>Bedtime</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>Heure du coucher</t>
+  </si>
+  <si>
+    <r>
+      <t>Language</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>Langue</t>
+  </si>
+  <si>
+    <r>
+      <t>Number of notifications</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>Nombre de notifications</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Settings </t>
+  </si>
+  <si>
+    <t>Paramètres</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Return </t>
+  </si>
+  <si>
+    <t>Retour</t>
+  </si>
+  <si>
+    <t>TBD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Password is incorrect </t>
+  </si>
+  <si>
+    <t>After respondent has submitted questionnaire</t>
+  </si>
+  <si>
+    <r>
+      <t>We love feedback! Tell us how we’re doing by rating us on Google</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Play Store.  </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Bilan bien-être </t>
+  </si>
+  <si>
+    <t>Français</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>Getting started</t>
+  </si>
+  <si>
+    <t>Pour commencer</t>
+  </si>
+  <si>
+    <t>Terms and Conditions</t>
+  </si>
+  <si>
+    <t>Conditions générales</t>
+  </si>
+  <si>
+    <t>Secure your account</t>
+  </si>
+  <si>
+    <t>Enter password</t>
+  </si>
+  <si>
+    <t>Answer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rate </t>
+  </si>
+  <si>
+    <t>Évaluer</t>
+  </si>
+  <si>
+    <r>
+      <t>Later</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>Pas maintenant</t>
+  </si>
+  <si>
+    <t>Mauvaise mot de passe</t>
+  </si>
+  <si>
+    <t>Autorisez-vous « Bilan bien-être» à vous envoyer des notifications ?
+Les notifications peuvent inclure des alertes, des sons et des pastilles d’icônes. Vous pouvez les configurer dans Réglages. 
+Refuser
+Autoriser</t>
+  </si>
+  <si>
+    <t>“Well-being Check” Would Like to Send You Notifications
+Notifications may include alerts, sounds, and icon badges. These can be configured in Settings. 
+Don't Allow
+Allow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contact us  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">We haven’t heard from you in a while. Sign in for a Well-being Check! </t>
+  </si>
+  <si>
+    <t>These results have not been validated by Statistics Canada. For more information and help interpreting your results, please see the FAQ on the help page.</t>
+  </si>
+  <si>
+    <t>Ces résultats n’ont pas été validés par Statistique Canada. Pour plus d’informations et pour vous aider à interpréter vos résultats, veuillez consulter la Foire aux questions sur la page d’aide.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">START </t>
+  </si>
+  <si>
+    <t>COMMENCER</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Getting Started
+Why we are conducting this study 
+The purpose of this study is to better understand the everyday well-being of Canadians by asking about activities and feelings as they are happening. To do this, participants will download an app on their smartphones and answer a few questions at different intervals throughout the day, over a short period of time. The results will help us to find connections between activities and well-being, and be used to develop programs that enhance people’s lives. In the future, an app could be used as a faster and more convenient way to complete other Statistics Canada surveys. 
+Information may also be used by Statistics Canada for other statistical and research purposes. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Notifications
+This app will notify you to complete a Well-being Check 2 to 5 times daily between the time you wake up and the time you go to bed. You can customize these parameters at any time in the settings menu on the app’s home page. If you do not customize the parameters, you will receive a default of 2 daily notifications at various times between 08:00 and 22:00. If you do not allow notifications, you can still complete a Well-being Check whenever you like, but the quality of your results may be impacted. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Authorization and confidentiality 
+Data are collected under the authority of the Statistics Act, Revised Statutes of Canada, 1985, Chapter S-19. Your information will be kept strictly confidential. 
+Although voluntary, your participation is important so that the information collected is as accurate and complete as possible. 
+Record linkages 
+To enhance the data from this survey and to reduce the reporting burden, Statistics Canada may combine the information you provide with other survey or administrative data sources. 
+Time required to complete this questionnaire 
+This questionnaire will take about 2 minutes to complete. 
+Please note that you will not be able to change any information you reported once you have submitted the questionnaire. 
+To navigate the questionnaire 
+Use the Previous and Next buttons located at the bottom right of each page. 
+Session timeout 
+After 2 hours of inactivity, your session will time out. You will not be able to access any unsaved information. 
+After 15 minutes of inactivity, Well-Being Check will lock. You will need to enter your password to continue. 
+Definitions and explanations 
+A help button is available for certain questions. Press this button for additional information or clarification.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Pour Commencer
+Pourquoi nous menons cette étude 
 L’objectif de cette enquête est de mieux comprendre le bien-être au quotidien des Canadiens et des Canadiennes en leur demandant de répondre à des questions sur les activités qu’ils entreprennent et les sentiments qu’ils éprouvent en temps réel. Pour ce faire, les participants devront télécharger une application sur leur téléphone intelligent et répondre à quelques questions à divers intervalles au cours de la journée, sur une courte période de temps. Les résultats obtenus nous aideront à établir des liens entre certaines activités et le bien-être, et nous permettront de développer des programmes qui amélioreront la vie des gens. À l’avenir, ce genre d’application pourrait servir à répondre à d’autres enquêtes de Statistique Canada de façon plus rapide et pratique. 
 Les renseignements recueillis pourraient aussi être utilisés par Statistique Canada à d’autres fins statistiques et de recherche. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Notifications
+Cette application vous enverra une notification pour remplir un Bilan bien-être de 2 à 5 fois par jour, entre l’heure de votre réveil et l’heure à laquelle vous vous couchez. Vous pouvez personnaliser ces paramètres à tout moment dans le menu des paramètres sur la page d’accueil de l’application. Si vous ne personnalisez pas les paramètres, vous recevrez par défaut 2 notifications à divers moments entre 8 h et 22 h. Si vous n’acceptez pas les notifications, vous pourrez tout de même remplir un Bilan bien-être quand vous le voudrez, mais la qualité de vos résultats pourrait en être affectée. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 Autorisation et confidentialité 
 Ces données sont recueillies en vertu de la Loi sur la statistique, Lois révisées du Canada (1985), chapitre S-19. V os renseignements demeureront strictement confidentiels. 
+Bien qu’elle soit volontaire, votre participation est importante afin que les renseignements recueillis soient les plus exacts et les plus complets possible.
 Couplages d’enregistrements 
 Afin d’améliorer la qualité des données tirées de cette enquête et de réduire le fardeau de réponse, Statistique Canada pourrait combiner les renseignements que vous fournissez avec ceux provenant d’autres enquêtes ou sources de données administratives. 
 Temps requis pour remplir ce questionnaire 
@@ -193,11 +463,35 @@
 Après 15 minutes d’inactivité, Bilan bien-être se verrouille. Vous devrez entrer votre mot de passe pour continuer. 
 Définitions et explications 
 Un bouton d’aide est disponible pour certaines questions. Appuyez sur ce bouton pour obtenir plus de renseignements ou des précisions.</t>
-  </si>
-  <si>
-    <t>Why we are conducting this study 
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Why we are conducting this study 
 The purpose of this study is to better understand the everyday well-being of Canadians by asking about activities and feelings as they are happening. To do this, participants will download an app on their smartphones and answer a few questions at different intervals throughout the day, over a short period of time. The results will help us to find connections between activities and well-being, and be used to develop programs that enhance people’s lives. In the future, an app could be used as a faster and more convenient way to complete other Statistics Canada surveys. 
 Information may also be used by Statistics Canada for other statistical and research purposes. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Notifications
+This app will notify you to complete a Well-being Check 2 to 5 times daily between the time you wake up and the time you go to bed. You can customize these parameters at any time in the settings menu on the app’s home page. If you do not customize the parameters, you will receive a default of 2 daily notifications at various times between 08:00 and 22:00. If you do not allow notifications, you can still complete a Well-being Check whenever you like, but the quality of your results may be impacted. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 Authorization and confidentiality 
 Data are collected under the authority of the Statistics Act, Revised Statutes of Canada, 1985, Chapter S-19. Your information will be kept strictly confidential. 
 Record linkages 
@@ -212,10 +506,25 @@
 After 15 minutes of inactivity, Well-Being Check will lock. You will need to enter your password to continue. 
 Definitions and explanations 
 A help button is available for certain questions. Press this button for additional information or clarification.</t>
-  </si>
-  <si>
-    <r>
-      <t>Information</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Pourquoi nous menons cette étude 
+L’objectif de cette enquête est de mieux comprendre le bien-être au quotidien des Canadiens et des Canadiennes en leur demandant de répondre à des questions sur les activités qu’ils entreprennent et les sentiments qu’ils éprouvent en temps réel. Pour ce faire, les participants devront télécharger une application sur leur téléphone intelligent et répondre à quelques questions à divers intervalles au cours de la journée, sur une courte période de temps. Les résultats obtenus nous aideront à établir des liens entre certaines activités et le bien-être, et nous permettront de développer des programmes qui amélioreront la vie des gens. À l’avenir, ce genre d’application pourrait servir à répondre à d’autres enquêtes de Statistique Canada de façon plus rapide et pratique. 
+Les renseignements recueillis pourraient aussi être utilisés par Statistique Canada à d’autres fins statistiques et de recherche. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Notifications
+Cette application vous enverra une notification pour remplir un Bilan bien-être de 2 à 5 fois par jour, entre l’heure de votre réveil et l’heure à laquelle vous vous couchez. Vous pouvez personnaliser ces paramètres à tout moment dans le menu des paramètres sur la page d’accueil de l’application. Si vous ne personnalisez pas les paramètres, vous recevrez par défaut 2 notifications à divers moments entre 8 h et 22 h. Si vous n’acceptez pas les notifications, vous pourrez tout de même remplir un Bilan bien-être quand vous le voudrez, mais la qualité de vos résultats pourrait en être affectée. </t>
     </r>
     <r>
       <rPr>
@@ -225,270 +534,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Your results </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <t>Notifications can be customized in the settings menu</t>
-  </si>
-  <si>
-    <t>Les notifications peuvent être personnalisées dans le menu des paramètres</t>
-  </si>
-  <si>
-    <r>
-      <t>Wake</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">-up time </t>
-    </r>
-  </si>
-  <si>
-    <t>Heure du lever</t>
-  </si>
-  <si>
-    <r>
-      <t>Bedtime</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <t>Heure du coucher</t>
-  </si>
-  <si>
-    <r>
-      <t>Language</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <t>Langue</t>
-  </si>
-  <si>
-    <r>
-      <t>Number of notifications</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <t>Nombre de notifications</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Settings </t>
-  </si>
-  <si>
-    <t>Paramètres</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Return </t>
-  </si>
-  <si>
-    <t>Retour</t>
-  </si>
-  <si>
-    <t>Terms and conditions must be accepted to continue</t>
-  </si>
-  <si>
-    <t>Les conditions générales doivent être acceptées avant de continuer</t>
-  </si>
-  <si>
-    <t>TBD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Password is incorrect </t>
-  </si>
-  <si>
-    <t>Thank you for completing this survey!</t>
-  </si>
-  <si>
-    <t>Nous vous remercions d’avoir participé à l’enquête!</t>
-  </si>
-  <si>
-    <t>After respondent has submitted questionnaire</t>
-  </si>
-  <si>
-    <r>
-      <t>We love feedback! Tell us how we’re doing by rating us on Google</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Play Store.  </t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Well-Being Check </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bilan bien-être </t>
-  </si>
-  <si>
-    <t>Français</t>
-  </si>
-  <si>
-    <t>English</t>
-  </si>
-  <si>
-    <t>Getting started</t>
-  </si>
-  <si>
-    <t>Pour commencer</t>
-  </si>
-  <si>
-    <t>Terms and Conditions</t>
-  </si>
-  <si>
-    <t>Conditions générales</t>
-  </si>
-  <si>
-    <t>Secure your account</t>
-  </si>
-  <si>
-    <t>Enter password</t>
-  </si>
-  <si>
-    <t>Answer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rate </t>
-  </si>
-  <si>
-    <t>Évaluer</t>
-  </si>
-  <si>
-    <r>
-      <t>Later</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <t>Pas maintenant</t>
-  </si>
-  <si>
-    <t>Mauvaise mot de passe</t>
-  </si>
-  <si>
-    <t>Autorisez-vous « Bilan bien-être» à vous envoyer des notifications ?
-Les notifications peuvent inclure des alertes, des sons et des pastilles d’icônes. Vous pouvez les configurer dans Réglages. 
-Refuser
-Autoriser</t>
-  </si>
-  <si>
-    <t>“Well-Being Check” Would Like to Send You Notifications
-Notifications may include alerts, sounds, and icon badges. These can be configured in Settings. 
-Don't Allow
-Allow</t>
-  </si>
-  <si>
-    <t>Getting Started
-Why we are conducting this study 
-The purpose of this study is to better understand the everyday well-being of Canadians by asking about activities and feelings as they are happening. To do this, participants will download an app on their smartphones and answer a few questions at different intervals throughout the day, over a short period of time. The results will help us to find connections between activities and well-being, and be used to develop programs that enhance people’s lives. In the future, an app could be used as a faster and more convenient way to complete other Statistics Canada surveys. 
-Information may also be used by Statistics Canada for other statistical and research purposes. Although voluntary, your participation is important so that the information collected is as accurate and complete as possible. 
-Authorization and confidentiality 
-Data are collected under the authority of the Statistics Act, Revised Statutes of Canada, 1985, Chapter S-19. Your information will be kept strictly confidential. 
-Record linkages 
-To enhance the data from this survey and to reduce the reporting burden, Statistics Canada may combine the information you provide with other survey or administrative data sources. 
-Time required to complete this questionnaire 
-This questionnaire will take about 2 minutes to complete. 
-Please note that you will not be able to change any information you reported once you have submitted the questionnaire. 
-To navigate the questionnaire 
-Use the Previous and Next buttons located at the bottom right of each page. 
-Session timeout 
-After 2 hours of inactivity, your session will time out. You will not be able to access any unsaved information. 
-After 15 minutes of inactivity, Well-Being Check will lock. You will need to enter your password to continue. 
-Definitions and explanations 
-A help button is available for certain questions. Press this button for additional information or clarification.</t>
-  </si>
-  <si>
-    <t>Pour Commencer
-Pourquoi nous menons cette étude 
-L’objectif de cette enquête est de mieux comprendre le bien-être au quotidien des Canadiens et des Canadiennes en leur demandant de répondre à des questions sur les activités qu’ils entreprennent et les sentiments qu’ils éprouvent en temps réel. Pour ce faire, les participants devront télécharger une application sur leur téléphone intelligent et répondre à quelques questions à divers intervalles au cours de la journée, sur une courte période de temps. Les résultats obtenus nous aideront à établir des liens entre certaines activités et le bien-être, et nous permettront de développer des programmes qui amélioreront la vie des gens. À l’avenir, ce genre d’application pourrait servir à répondre à d’autres enquêtes de Statistique Canada de façon plus rapide et pratique. 
-Les renseignements recueillis pourraient aussi être utilisés par Statistique Canada à d’autres fins statistiques et de recherche. Bien qu’elle soit volontaire, votre participation est importante afin que les renseignements recueillis soient les plus exacts et les plus complets possible.
+      <t xml:space="preserve">
 Autorisation et confidentialité 
 Ces données sont recueillies en vertu de la Loi sur la statistique, Lois révisées du Canada (1985), chapitre S-19. V os renseignements demeureront strictement confidentiels. 
 Couplages d’enregistrements 
@@ -502,13 +548,278 @@
 Après 15 minutes d’inactivité, Bilan bien-être se verrouille. Vous devrez entrer votre mot de passe pour continuer. 
 Définitions et explications 
 Un bouton d’aide est disponible pour certaines questions. Appuyez sur ce bouton pour obtenir plus de renseignements ou des précisions.</t>
+    </r>
+  </si>
+  <si>
+    <t>Help text</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">How are you feeling right now? </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Sign in for a Well-being Check! </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Comment vous sentez-vous en ce moment? </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Connectez-vous pour obtenir un Bilan bien-être!</t>
+    </r>
+  </si>
+  <si>
+    <t>Résultats</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Results </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>Password cannot be empty</t>
+  </si>
+  <si>
+    <t>Password must be at least 8 characters</t>
+  </si>
+  <si>
+    <t>Password must contain at least 1 upper case</t>
+  </si>
+  <si>
+    <t>Password must contain at least 1 special character</t>
+  </si>
+  <si>
+    <t>Password must contain at least 1 lower case</t>
+  </si>
+  <si>
+    <t>Password must contain at least 1 number</t>
+  </si>
+  <si>
+    <r>
+      <t>Well-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">eing Check </t>
+    </r>
+  </si>
+  <si>
+    <t>Le mot de passe ne peut pas être vide</t>
+  </si>
+  <si>
+    <t>Le mot de passe doit comporter au moins 8 caractères</t>
+  </si>
+  <si>
+    <t>Le mot de passe doit contenir au moins une majuscule</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le mot de passe doit contenir au moins un caractère spécial           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le mot de passe doit contenir au moins une minuscule   </t>
+  </si>
+  <si>
+    <t>Le mot de passe doit contenir au moins un chiffre</t>
+  </si>
+  <si>
+    <t>You must accept Terms and Conditions to use this app. Select “OK” to revise your preferences, or call us at 1-877-949-9492 for more information.</t>
+  </si>
+  <si>
+    <t>Vous devez accepter les Conditions générales pour utiliser cette application. Sélectionnez « OK » pour modifier vos préférences, ou appelez-nous au 1-877-949-9492 pour obtenir plus de renseignements.</t>
+  </si>
+  <si>
+    <t>Veuillez consulter le menu des paramètres pour personnaliser le nombre de notifications que vous recevrez et pour déterminer à quels moments vous souhaitez les recevoir.</t>
+  </si>
+  <si>
+    <t>Please visit the settings menu if you would like to customize the number of notifications you receive, and the window of time when you would like to receive them.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Thank you for completing this survey! </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>You can review your Well-being Check in the Results menu.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Nous vous remercions d’avoir participé à l’enquête! </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Vous pouvez consulter votre Bilan bien-être dans le menu Résultats.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Désistement
+La collecte des renseignements effectuée au moyen de l’application Bilan bien-être est régie par la Loi sur la statistique, en vertu de laquelle tout renseignement fourni demeure confidentiel et n’est utilisé qu’à des fins statistiques et de recherche. Il vous incombe de protéger votre téléphone et votre accès à l’application. Nous vous recommandons de ne pas supprimer les restrictions et les limites imposées par le système d’exploitation officiel de votre appareil quant à l’utilisation des logiciels. Cela pourrait compromettre les fonctions de sécurité de votre téléphone ainsi que la sécurité et la confidentialité des renseignements recueillis par l’application.
+Conditions générales
+Les Conditions générales énoncées ci-dessous résultent du fait que Statistique Canada, à titre d'organisme public, doit faire preuve de transparence et se conformer aux dispositions des lois fédérales, notamment, mais non exclusivement, la Loi sur la statistiques, la Loi sur la protection des renseignements personnels et la Loi sur l'accès à l'information. L'objectif principal de Statistique Canada est d'accroître la portée et la précision de l'information statistique sur la population, la société et l'économie du Canada mise à la disposition du public canadien.
+http://www.statcan.gc.ca/fra/reference/avis/conditions-generales
+Modification des conditions générales
+Statistique Canada se réserve le droit de modifier les présentes conditions générales à sa seule discrétion. Le cas échéant, il vous faudra accepter toute modification avant de pouvoir utiliser l’application.
+Avis de confidentialité
+Statistique Canada s’est engagé à protéger les renseignements personnels de toutes les personnes et entreprises, et ce, qu’elles répondent à l’une de ses enquêtes, fournissent des renseignements personnels, achètent un produit ou un service ou utilisent notre site Web. Afin de respecter cet engagement, nous avons élaboré un cadre de protection des renseignements personnels qui décrit les pratiques, les procédures et les mesures de gouvernance approuvées en matière de protection de la vie privée.
+Tous les renseignements personnels recueillis, utilisés, divulgués ou conservés par Statistique Canada sont protégés en vertu de la Loi sur la protection des renseignements personnels et de la Loi sur la statistique, qu’ils aient été fournis par un répondant ou reçus d’une tierce partie. La protection des renseignements personnels et la confidentialité
+http://www.statcan.gc.ca/fra/reference/privee
+Énoncé de confidentialité
+La collecte des renseignements effectuée au moyen de l’application est régie par la Loi sur la statistique, en vertu de laquelle tout renseignement fourni demeure confidentiel et n’est utilisé qu’à des fins statistiques et de recherche.
+Langues officielles
+Statistique Canada respecte la Loi sur les langues officielles et s'engage à ce que les produits d'information disponibles soient d'égale qualité en français et en anglais.
+http://www.statcan.gc.ca/fra/rb/blogue2
+Avis de l’accessibiité
+Le gouvernement du Canada est déterminé à maintenir une norme d'accessibilité élevée conformément à la Norme sur l’optimisation des sites Web et des applications pour appareils mobiles. Veuillez communiquer avec nous si vous éprouvez des difficultés à utiliser nos pages Web, les applications ou les applications mobiles axées sur l'appareil, ou si vous désirez obtenir des formats de substitution comme le caractère ordinaire, le Braille ou un autre format approprié.
+http://www.statcan.gc.ca/fra/reference/avisaccess
+Utilisation du contenu
+L’application sert non pas à fournir du contenu, mais bien à recueillir des renseignements. Vous ne pouvez pas modifier l’application ou le contenu ni l’utiliser à des fins commerciales.
+Code d’identification unique
+Un code d’identification unique, généré de façon aléatoire, sera intégré à votre appareil lors du téléchargement de l’application. Il sera utilisé chaque fois que vous soumettrez des renseignements, ce qui permettra à vos données d’être combinées à celles soumises précédemment. Ce code d’identification sera retiré de votre appareil si vous supprimez l’application.
+Lois applicables
+La présente application et ses conditions générales sont régies par les lois de la province de l’Ontario et les lois applicables du Canada.
+Toute procédure judiciaire se rapportant à la présente application et à ses conditions générales ne pourra être portée que devant les tribunaux de l’Ontario ou la Cour fédérale du Canada.
+Limitation de la responsabilité
+Le gouvernement du Canada, ses représentants, fonctionnaires, employés et/ou mandataires ne peuvent être tenus responsables d’une blessure subie par une personne, y compris son décès, ou d’une perte ou d’un dommage causé aux biens d’une personne, par suite de l’utilisation de l’application. En téléchargeant ou en utilisant cette application ou toute page de cette application ou en y accédant, vous indiquez que vous consentez au présent avis de non-responsabilité. L’utilisation d’un téléphone mobile au volant est généralement considérée comme dangereuse en raison de son potentiel de distraction et des risques d’accidents qu’elle entraîne. L’usage du téléphone en général ou les activités telles que les appels vocaux, l’échange de messages texte, la navigation sur le Web, les jeux vidéo et l’utilisation d’applications mobiles peuvent accroître le risque d’accident. L’utilisation de cette application ne doit se faire que lorsque cela est approprié et sûr.
+Avis de divulgations
+Statistique Canada peut divulguer des renseignements identificatoires lorsque le répondant a donné son consentement par écrit.
+Droit d’auteur
+L’information publiée par Statistique Canada sur l’application est assujettie à la Loi sur le droit d'auteur du Canada.
+Avis concernant l'image de marque
+La reproduction des symboles officiels du gouvernement du Canada, y compris le mot-symbole « Canada », les armoiries du Canada et le symbole du drapeau, à des fins commerciales ou non commerciales, est interdite sans autorisation écrite au préalable.
+http://www.statcan.gc.ca/fra/reference/droit-auteur
+Aucune garantie
+Les renseignements contenus dans cette application sont fournis « tels quels », et Statistique Canada n’en fait aucune représentation et ne donne aucune garantie à leur égard, que ce soit de manière explicite ou implicite, et rejette expressément toute garantie implicite de qualité marchande ou d’adéquation de ces renseignements à une fin particulière.
+Indemnité 
+Les utilisateurs de l’application indemnisent et dégagent Statistique Canada, ses représentants, fonctionnaires, employés et/ou mandataires et entrepreneurs de toute perte ou condition, qu’elle soit expresse, implicite ou légale, y compris les garanties et conditions implicites de qualité marchande, d’adéquation à une fin particulière, et de non-infraction.
+Restrictions
+L’utilisation de cette application est strictement assujettie à ses conditions générales. Les utilisateurs ne doivent pas : décompiler, réinventer, démonter ou tenter de détourner le code source de l’application; retirer, altérer ou obscurcir tout avis de propriété intellectuelle d’une partie de l’application; reproduire, modifier, améliorer l’application ou en obtenir des résultats altérés; distribuer, louer, vendre, revendre, transférer, afficher publiquement, transmettre ou exploiter l’application, ou en octroyer une licence; établir un lien avec une partie de l’application, en faire une image miroir ou la structurer à des fins illégales et non autorisées. Les utilisateurs doivent accepter de se conformer à toutes les lois, toutes les règles et tous les règlements applicables à l’utilisation de l’application.
+Modification et accès
+Statistique Canada se réserve le droit de modifier ou d’interrompre l’application pour quelque raison que ce soit et sans préavis.
+Propriété
+Statistique Canada garantit qu’il est le propriétaire légitime de l’application et des documents qui s’y rapportent, et qui font l’objet de la présente entente.
+Maintenance et soutien
+Statistique Canada pourrait ne pas offrir ni maintenance ni soutien pour l’application. Statistique Canada pourrait fournir des mises à jour périodiques de l’application, y compris la réparation d’erreurs du système et des améliorations.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disclaimer 
+Information collected through the use of the Well-being Check App falls under the authority of the Statistics Act which ensures that any information provided will be kept confidential and will only be used for statistical and research purposes.  It is your responsibility to keep your phone and access to the App secure. We do not recommend removing software restrictions and limitations imposed by the official operating system of your device. Doing so could compromise your phone’s security features and the security/confidentiality of the information collected by this App.
+General terms and conditions 
+The following Terms and Conditions arise from Statistics Canada's character as a public institution that must operate transparently and in conformity with the provisions of federal legislation, notably, but not exclusively, the Statistics Act, the Privacy Act and the Access to Information Act. Statistics Canada's principal objective is to increase the range and depth of statistical information on Canada's population, society and economy available to the Canadian public.
+http://www.statcan.gc.ca/eng/reference/terms-conditions/general
+Modification of Terms and Conditions
+Statistics Canada reserves the right to change these Terms and Conditions in its sole discretion.  Modification of these Terms and Conditions by Statistics Canada will require they are accepted prior to using the App.
+Privacy notice
+Statistics Canada is committed to respecting the privacy of individuals and businesses—whether they are responding to one of our surveys, providing personal information, purchasing a product or service or using our website. To fulfill this commitment, Statistics Canada has created a Privacy Framework that describes the Approved practices, procedures and governance related to privacy. All personal information collected, used, disclosed or retained by Statistics Canada is protected by the Privacy Act and by the Statistics Act whether it was provided by a respondent or received from a third party.  Privacy and confidentiality of personal information
+http://www.statcan.gc.ca/eng/reference/privacy
+Confidentiality statement
+Information collected through the use of the App falls under the authority of the Statistics Act, which ensures that any information provided will be kept confidential and will only be used for statistical and research purposes.  
+Official language notice
+Statistics Canada respects the Official Languages Act and is committed to ensuring that information products of equal quality are available in both English and French.
+http://www.statcan.gc.ca/eng/sc/blog2
+Accessibility notice
+The Government of Canada is committed to achieving a high standard of accessibility as defined in the Standard on Optimizing Website and Applications for Mobile Devices.  In the event of difficulty using our web pages, Applications or device-based mobile Applications, please contact us for assistance or to obtain alternative formats such as regular print, Braille or another Appropriate format. 
+http://www.statcan.gc.ca/eng/reference/accessnotice
+Use of content
+The App is not for providing content, but is used to assist in the collection of information. You may not alter the App or the content, or use it for commercial purposes.
+Unique identifier
+A randomly generated unique identifier will be placed on your device as part of downloading the App. The unique identifier will be used each time you complete a submission, as a method to combine your data with previous submissions. It will be removed from your device if you delete the Application.
+Applicable law
+Disclaimer This App and its Terms and Conditions are governed by the laws of the province of Ontario and Applicable laws of Canada. Legal proceedings related to this App and its Terms and Conditions may only be brought in the courts of Ontario or the Federal Court of Canada.
+Limitation of liability
+The Government of Canada, its officers, servants, employees and/or agents shall not be held liable for any injury to any person, including death, or for any loss or damage to any person’s property, incurred or suffered arising out of or in connection with the use of the App. By downloading, accessing or using this App or any page of this App, you signify your assent to this disclaimer. Mobile phone use while driving is widely considered dangerous due to its potential for causing distracted driving and accidents. Activities such as voice calling, texting, web browsing, playing video games, mobile App use or phone use in general can increase the risk of an accident. Use of this App should only be done when Appropriate and safe to do so.
+Disclosure statement
+Statistics Canada is allowed to disclose identifiable information when the respondent has given written consent to release it. 
+Copyright notice
+Information presented by Statistics Canada in this App is subject to the Copyright Act of Canada.
+Trademark notice
+The official symbols of the Government of Canada, including the Canada Wordmark, the Arms of Canada, and the flag symbol may not be reproduced whether for commercial or non-commercial purposes, without prior written authorization.
+http://www.statcan.gc.ca/eng/reference/copyright
+No warranties
+The information in this App is provided ‘as is’, and Statistics Canada makes no representations or warranties whatsoever with respect to the information, whether express or implied, in relation to the information and expressly disclaims any implied warranty of merchantability or fitness for a particular purpose of the information.
+Indemnity 
+Users of the App hereby indemnify and hold harmless Statistics Canada, its officers, servants, employees and/or agents and contractors, from any and all losses, conditions, whether express, implied or statutory, including implied warranties and implied conditions of merchantability, fitness for a particular purpose, and non-infringement.
+Restrictions
+Use of this App is strictly in accordance with its Terms and Conditions. Users shall not: decompile, reverse engineer, disassemble or attempt to derive the source code from the App; remove, alter or obscure any proprietary notice from any portion of the App; reproduce, modify, improve, enhance or make derivative works based upon the App; distribute, license, lease, sell, resell, transfer, publicly display, transmit or otherwise exploit the App; link to, mirror or frame any portion of the App for any illegal and unauthorized purpose, and agree to comply with all laws, rules and regulations Applicable to their use of the App. 
+Modifications and access
+Statistics Canada reserves the right to modify or discontinue this App for any reason and without notice.
+Ownership
+Statistics Canada warrants that it is the rightful owner of the App and related documentation that is the subject of this Agreement.  
+Maintenance and support
+Statistics Canada may not provide any maintenance or support for this App. Statistics Canada may provide periodic updates to the App which may include bug fixes and enhancements.
+</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -593,8 +904,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -604,6 +930,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -621,7 +953,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -668,6 +1000,19 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -962,7 +1307,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -972,10 +1317,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="188.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -1017,7 +1362,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1030,7 +1375,7 @@
   <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1041,10 +1386,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="240" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -1112,19 +1457,37 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N31" sqref="N31"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="47.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>54</v>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="21"/>
+    </row>
+    <row r="2" spans="1:2" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1132,27 +1495,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="64.85546875" customWidth="1"/>
+    <col min="1" max="1" width="89.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="110.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="B1" s="19"/>
-    </row>
-    <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="24"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1160,17 +1524,17 @@
       <c r="B3" s="16"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="18"/>
-    </row>
-    <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="23"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
-        <v>20</v>
+        <v>62</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -1178,17 +1542,17 @@
       <c r="B6" s="8"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" s="17"/>
-    </row>
-    <row r="8" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="22"/>
+    </row>
+    <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -1196,17 +1560,17 @@
       <c r="B9" s="8"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" s="17"/>
-    </row>
-    <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="22"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -1214,31 +1578,31 @@
       <c r="B12" s="8"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" s="17"/>
-    </row>
-    <row r="14" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="22"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="B16" s="17"/>
+      <c r="A16" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="22"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
-        <v>56</v>
+        <v>93</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>57</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -1257,53 +1621,51 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" customWidth="1"/>
-    <col min="2" max="2" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="45.140625" customWidth="1"/>
+    <col min="2" max="2" width="56.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="B1" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="B3" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="B4" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="B5" t="s">
         <v>1</v>
@@ -1311,7 +1673,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
@@ -1335,7 +1697,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
@@ -1351,26 +1713,74 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="B11" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="B12" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="B13" t="s">
-        <v>74</v>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -1382,7 +1792,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B57"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1391,10 +1803,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
@@ -1564,15 +1976,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="109.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>54</v>
+    <row r="1" spans="1:2" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -1585,7 +2005,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1593,12 +2013,12 @@
     <col min="1" max="2" width="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>53</v>
+    <row r="1" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -1614,7 +2034,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1681,7 +2101,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1689,12 +2109,12 @@
     <col min="1" max="2" width="37.5703125" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>39</v>
+    <row r="1" spans="1:2" ht="84" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1710,7 +2130,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1720,35 +2140,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" t="s">
-        <v>13</v>
+      <c r="A1" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4" t="s">
-        <v>17</v>
+      <c r="A4" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -1764,7 +2184,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1775,50 +2195,50 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1831,7 +2251,7 @@
   <dimension ref="A1:B59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1841,10 +2261,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
